--- a/INTLINE/data/142/STANOR/10722 General government. Taxes and social security contributions.xlsx
+++ b/INTLINE/data/142/STANOR/10722 General government. Taxes and social security contributions.xlsx
@@ -314,7 +314,7 @@
     <x:t>Taxes:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220303 08:00</x:t>
+    <x:t>20220607 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1020,7 +1020,7 @@
         <x:v>307423</x:v>
       </x:c>
       <x:c r="AC5" s="3" t="n">
-        <x:v>608029</x:v>
+        <x:v>616603</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:29">
@@ -1106,7 +1106,7 @@
         <x:v>282683</x:v>
       </x:c>
       <x:c r="AC6" s="3" t="n">
-        <x:v>304714</x:v>
+        <x:v>313294</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:29">
@@ -1192,7 +1192,7 @@
         <x:v>200300</x:v>
       </x:c>
       <x:c r="AC7" s="3" t="n">
-        <x:v>200714</x:v>
+        <x:v>209294</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:29">
@@ -1794,7 +1794,7 @@
         <x:v>7941</x:v>
       </x:c>
       <x:c r="AC14" s="3" t="n">
-        <x:v>8315</x:v>
+        <x:v>8309</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:29">
@@ -1880,7 +1880,7 @@
         <x:v>7640</x:v>
       </x:c>
       <x:c r="AC15" s="3" t="n">
-        <x:v>8000</x:v>
+        <x:v>7994</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:29">
@@ -2224,7 +2224,7 @@
         <x:v>428137</x:v>
       </x:c>
       <x:c r="AC19" s="3" t="n">
-        <x:v>455443</x:v>
+        <x:v>455250</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:29">
@@ -2568,7 +2568,7 @@
         <x:v>26721</x:v>
       </x:c>
       <x:c r="AC23" s="3" t="n">
-        <x:v>25894</x:v>
+        <x:v>26261</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:29">
@@ -2654,7 +2654,7 @@
         <x:v>9329</x:v>
       </x:c>
       <x:c r="AC24" s="3" t="n">
-        <x:v>7813</x:v>
+        <x:v>7985</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:29">
@@ -2740,7 +2740,7 @@
         <x:v>1602</x:v>
       </x:c>
       <x:c r="AC25" s="3" t="n">
-        <x:v>1661</x:v>
+        <x:v>1685</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:29">
@@ -2912,7 +2912,7 @@
         <x:v>4401</x:v>
       </x:c>
       <x:c r="AC27" s="3" t="n">
-        <x:v>4431</x:v>
+        <x:v>4498</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:29">
@@ -2998,7 +2998,7 @@
         <x:v>9588</x:v>
       </x:c>
       <x:c r="AC28" s="3" t="n">
-        <x:v>10184</x:v>
+        <x:v>10289</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:29">
@@ -3084,7 +3084,7 @@
         <x:v>26938</x:v>
       </x:c>
       <x:c r="AC29" s="3" t="n">
-        <x:v>29120</x:v>
+        <x:v>29220</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:29">
@@ -3170,7 +3170,7 @@
         <x:v>11322</x:v>
       </x:c>
       <x:c r="AC30" s="3" t="n">
-        <x:v>12071</x:v>
+        <x:v>12078</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:29">
@@ -3256,7 +3256,7 @@
         <x:v>1880</x:v>
       </x:c>
       <x:c r="AC31" s="3" t="n">
-        <x:v>1911</x:v>
+        <x:v>1913</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:29">
@@ -3342,7 +3342,7 @@
         <x:v>8442</x:v>
       </x:c>
       <x:c r="AC32" s="3" t="n">
-        <x:v>9387</x:v>
+        <x:v>9479</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:29">
@@ -3772,7 +3772,7 @@
         <x:v>37553</x:v>
       </x:c>
       <x:c r="AC37" s="3" t="n">
-        <x:v>34567</x:v>
+        <x:v>34033</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:29">
@@ -3858,7 +3858,7 @@
         <x:v>17976</x:v>
       </x:c>
       <x:c r="AC38" s="3" t="n">
-        <x:v>18276</x:v>
+        <x:v>17847</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:29">
@@ -3944,7 +3944,7 @@
         <x:v>9127</x:v>
       </x:c>
       <x:c r="AC39" s="3" t="n">
-        <x:v>9232</x:v>
+        <x:v>9326</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:29">
@@ -4030,7 +4030,7 @@
         <x:v>4777</x:v>
       </x:c>
       <x:c r="AC40" s="3" t="n">
-        <x:v>1125</x:v>
+        <x:v>925</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:29">
@@ -4374,7 +4374,7 @@
         <x:v>15706</x:v>
       </x:c>
       <x:c r="AC44" s="3" t="n">
-        <x:v>17895</x:v>
+        <x:v>17767</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:29">
@@ -4460,7 +4460,7 @@
         <x:v>11352</x:v>
       </x:c>
       <x:c r="AC45" s="3" t="n">
-        <x:v>13196</x:v>
+        <x:v>13118</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:29">
@@ -4718,7 +4718,7 @@
         <x:v>383098</x:v>
       </x:c>
       <x:c r="AC48" s="3" t="n">
-        <x:v>402387</x:v>
+        <x:v>402443</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:29">
@@ -5062,7 +5062,7 @@
         <x:v>223124</x:v>
       </x:c>
       <x:c r="AC52" s="3" t="n">
-        <x:v>235077</x:v>
+        <x:v>235134</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:29">
@@ -5148,7 +5148,7 @@
         <x:v>196532</x:v>
       </x:c>
       <x:c r="AC53" s="3" t="n">
-        <x:v>210563</x:v>
+        <x:v>210543</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:29">
@@ -5234,7 +5234,7 @@
         <x:v>26592</x:v>
       </x:c>
       <x:c r="AC54" s="3" t="n">
-        <x:v>24514</x:v>
+        <x:v>24591</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:29">
@@ -5323,7 +5323,7 @@
         <x:v>514962</x:v>
       </x:c>
       <x:c r="AC55" s="3" t="n">
-        <x:v>850851</x:v>
+        <x:v>877245</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:29">
@@ -5409,7 +5409,7 @@
         <x:v>490222</x:v>
       </x:c>
       <x:c r="AC56" s="3" t="n">
-        <x:v>547536</x:v>
+        <x:v>573936</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:29">
@@ -5495,7 +5495,7 @@
         <x:v>393615</x:v>
       </x:c>
       <x:c r="AC57" s="3" t="n">
-        <x:v>430330</x:v>
+        <x:v>456730</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:29">
@@ -6097,7 +6097,7 @@
         <x:v>7941</x:v>
       </x:c>
       <x:c r="AC64" s="3" t="n">
-        <x:v>8315</x:v>
+        <x:v>8309</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:29">
@@ -6183,7 +6183,7 @@
         <x:v>7640</x:v>
       </x:c>
       <x:c r="AC65" s="3" t="n">
-        <x:v>8000</x:v>
+        <x:v>7994</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:29">
@@ -6527,7 +6527,7 @@
         <x:v>444598</x:v>
       </x:c>
       <x:c r="AC69" s="3" t="n">
-        <x:v>472727</x:v>
+        <x:v>472434</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:29">
@@ -6871,7 +6871,7 @@
         <x:v>26721</x:v>
       </x:c>
       <x:c r="AC73" s="3" t="n">
-        <x:v>25894</x:v>
+        <x:v>26261</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:29">
@@ -6957,7 +6957,7 @@
         <x:v>9329</x:v>
       </x:c>
       <x:c r="AC74" s="3" t="n">
-        <x:v>7813</x:v>
+        <x:v>7985</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:29">
@@ -7043,7 +7043,7 @@
         <x:v>1602</x:v>
       </x:c>
       <x:c r="AC75" s="3" t="n">
-        <x:v>1661</x:v>
+        <x:v>1685</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:29">
@@ -7215,7 +7215,7 @@
         <x:v>4401</x:v>
       </x:c>
       <x:c r="AC77" s="3" t="n">
-        <x:v>4431</x:v>
+        <x:v>4498</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:29">
@@ -7301,7 +7301,7 @@
         <x:v>9588</x:v>
       </x:c>
       <x:c r="AC78" s="3" t="n">
-        <x:v>10184</x:v>
+        <x:v>10289</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:29">
@@ -7387,7 +7387,7 @@
         <x:v>28581</x:v>
       </x:c>
       <x:c r="AC79" s="3" t="n">
-        <x:v>30780</x:v>
+        <x:v>30878</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:29">
@@ -7473,7 +7473,7 @@
         <x:v>11322</x:v>
       </x:c>
       <x:c r="AC80" s="3" t="n">
-        <x:v>12071</x:v>
+        <x:v>12078</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:29">
@@ -7559,7 +7559,7 @@
         <x:v>1880</x:v>
       </x:c>
       <x:c r="AC81" s="3" t="n">
-        <x:v>1911</x:v>
+        <x:v>1913</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:29">
@@ -7645,7 +7645,7 @@
         <x:v>8442</x:v>
       </x:c>
       <x:c r="AC82" s="3" t="n">
-        <x:v>9387</x:v>
+        <x:v>9479</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:29">
@@ -7903,7 +7903,7 @@
         <x:v>1643</x:v>
       </x:c>
       <x:c r="AC85" s="3" t="n">
-        <x:v>1660</x:v>
+        <x:v>1658</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:29">
@@ -8075,7 +8075,7 @@
         <x:v>37553</x:v>
       </x:c>
       <x:c r="AC87" s="3" t="n">
-        <x:v>34567</x:v>
+        <x:v>34033</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:29">
@@ -8161,7 +8161,7 @@
         <x:v>17976</x:v>
       </x:c>
       <x:c r="AC88" s="3" t="n">
-        <x:v>18276</x:v>
+        <x:v>17847</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:29">
@@ -8247,7 +8247,7 @@
         <x:v>9127</x:v>
       </x:c>
       <x:c r="AC89" s="3" t="n">
-        <x:v>9232</x:v>
+        <x:v>9326</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:29">
@@ -8333,7 +8333,7 @@
         <x:v>4777</x:v>
       </x:c>
       <x:c r="AC90" s="3" t="n">
-        <x:v>1125</x:v>
+        <x:v>925</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:29">
@@ -8591,7 +8591,7 @@
         <x:v>14818</x:v>
       </x:c>
       <x:c r="AC93" s="3" t="n">
-        <x:v>15623</x:v>
+        <x:v>15527</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:29">
@@ -8677,7 +8677,7 @@
         <x:v>15706</x:v>
       </x:c>
       <x:c r="AC94" s="3" t="n">
-        <x:v>17895</x:v>
+        <x:v>17767</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:29">
@@ -8763,7 +8763,7 @@
         <x:v>11352</x:v>
       </x:c>
       <x:c r="AC95" s="3" t="n">
-        <x:v>13196</x:v>
+        <x:v>13118</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:29">
@@ -9021,7 +9021,7 @@
         <x:v>387255</x:v>
       </x:c>
       <x:c r="AC98" s="3" t="n">
-        <x:v>406722</x:v>
+        <x:v>406778</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:29">
@@ -9365,7 +9365,7 @@
         <x:v>227281</x:v>
       </x:c>
       <x:c r="AC102" s="3" t="n">
-        <x:v>239412</x:v>
+        <x:v>239469</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:29">
@@ -9451,7 +9451,7 @@
         <x:v>196532</x:v>
       </x:c>
       <x:c r="AC103" s="3" t="n">
-        <x:v>210563</x:v>
+        <x:v>210543</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:29">
@@ -9537,7 +9537,7 @@
         <x:v>30749</x:v>
       </x:c>
       <x:c r="AC104" s="3" t="n">
-        <x:v>28849</x:v>
+        <x:v>28926</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:29">
